--- a/CSP_sequence_analysis/protein/HADDOCK_Results.xlsx
+++ b/CSP_sequence_analysis/protein/HADDOCK_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\HaplotypR_tests\cambel_full\protein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Ghana_CSP_Haplotypes\CSP_sequence_analysis\protein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246798BA-0466-48DF-8667-5A1E2819147A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CB9C61-CC60-450F-8FEF-797034CEBD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{05BB3759-F2AC-475A-81D0-60BB4FF9CDA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{05BB3759-F2AC-475A-81D0-60BB4FF9CDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -775,14 +775,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,14 +1098,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C05FAB-699E-4769-A909-822D635E1B9A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BH57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ30" sqref="BJ30"/>
+      <selection pane="bottomRight" activeCell="V23" sqref="V23:BH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,7 +2249,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2317,24 +2316,125 @@
       <c r="U7" t="b">
         <v>0</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
+      <c r="V7" s="4">
+        <v>-66.3</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="X7" s="4">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>-37</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>-139.6</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>-3.1</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>1238.3</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>-100</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>105</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>-89.7</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>-122.4</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>-10.8</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>248.9</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>72</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>2388</v>
+      </c>
+      <c r="AZ7" s="4">
+        <v>63.9</v>
+      </c>
+      <c r="BA7" s="4">
+        <v>-1.4</v>
+      </c>
+      <c r="BB7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="4">
+        <v>715.8</v>
+      </c>
+      <c r="BE7" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF7" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="BH7" s="4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2401,22 +2501,123 @@
       <c r="U8" t="b">
         <v>0</v>
       </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
+      <c r="V8" s="4">
+        <v>-66.3</v>
+      </c>
+      <c r="W8" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="X8" s="4">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>-37</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>-139.6</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>-3.1</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>1238.3</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>-100</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>105</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>-89.7</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>-122.4</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>-10.8</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>248.9</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>72</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>2388</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>63.9</v>
+      </c>
+      <c r="BA8" s="4">
+        <v>-1.4</v>
+      </c>
+      <c r="BB8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="4">
+        <v>715.8</v>
+      </c>
+      <c r="BE8" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF8" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="BH8" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2973,7 +3174,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="12" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3040,22 +3241,123 @@
       <c r="U12" t="b">
         <v>0</v>
       </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
+      <c r="V12" s="4">
+        <v>-70.599999999999994</v>
+      </c>
+      <c r="W12" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="X12" s="4">
+        <v>71</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>-39</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>-152.80000000000001</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>-2.8</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>1171.7</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>24</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>-1.4</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>-101.3</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>77</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>-84.6</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>-154</v>
+      </c>
+      <c r="AT12" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>-13.4</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW12" s="4">
+        <v>275.3</v>
+      </c>
+      <c r="AX12" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="AY12" s="4">
+        <v>2435.6999999999998</v>
+      </c>
+      <c r="AZ12" s="4">
+        <v>56.9</v>
+      </c>
+      <c r="BA12" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="BB12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="4">
+        <v>730.77</v>
+      </c>
+      <c r="BE12" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF12" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="BH12" s="4">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3427,7 +3729,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3494,24 +3796,125 @@
       <c r="U15" t="b">
         <v>0</v>
       </c>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
+      <c r="V15" s="4">
+        <v>-66.3</v>
+      </c>
+      <c r="W15" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="X15" s="4">
+        <v>42</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>-37</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>-139.6</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>-3.1</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>1238.3</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>-100</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>105</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>-89.7</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>-122.4</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="AU15" s="4">
+        <v>-10.8</v>
+      </c>
+      <c r="AV15" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW15" s="4">
+        <v>248.9</v>
+      </c>
+      <c r="AX15" s="4">
+        <v>72</v>
+      </c>
+      <c r="AY15" s="4">
+        <v>2388</v>
+      </c>
+      <c r="AZ15" s="4">
+        <v>63.9</v>
+      </c>
+      <c r="BA15" s="4">
+        <v>-1.4</v>
+      </c>
+      <c r="BB15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="4">
+        <v>715.8</v>
+      </c>
+      <c r="BE15" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF15" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="BH15" s="4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3578,22 +3981,123 @@
       <c r="U16" t="b">
         <v>0</v>
       </c>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
+      <c r="V16" s="4">
+        <v>-48.3</v>
+      </c>
+      <c r="W16" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X16" s="4">
+        <v>56</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>-25.3</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>-131.80000000000001</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>45.3</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>892.7</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>28.6</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>-91.3</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>39</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>5</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>-146.19999999999999</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>64.3</v>
+      </c>
+      <c r="AU16" s="4">
+        <v>-14.1</v>
+      </c>
+      <c r="AV16" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AW16" s="4">
+        <v>311.89999999999998</v>
+      </c>
+      <c r="AX16" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="AY16" s="4">
+        <v>2065.9</v>
+      </c>
+      <c r="AZ16" s="4">
+        <v>52.8</v>
+      </c>
+      <c r="BA16" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="BB16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="4">
+        <v>488.54</v>
+      </c>
+      <c r="BE16" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF16" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG16" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="BH16" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3965,7 +4469,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4032,24 +4536,125 @@
       <c r="U19" t="b">
         <v>0</v>
       </c>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
+      <c r="V19" s="4">
+        <v>-58.7</v>
+      </c>
+      <c r="W19" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="X19" s="4">
+        <v>68</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>-29.9</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>-165.6</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>38.6</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>18</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>1020.1</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>-88.3</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>69</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="AS19" s="4">
+        <v>-132.80000000000001</v>
+      </c>
+      <c r="AT19" s="4">
+        <v>47.4</v>
+      </c>
+      <c r="AU19" s="4">
+        <v>-16.5</v>
+      </c>
+      <c r="AV19" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="AW19" s="4">
+        <v>251.9</v>
+      </c>
+      <c r="AX19" s="4">
+        <v>66.3</v>
+      </c>
+      <c r="AY19" s="4">
+        <v>2106</v>
+      </c>
+      <c r="AZ19" s="4">
+        <v>174.6</v>
+      </c>
+      <c r="BA19" s="4">
+        <v>-1.8</v>
+      </c>
+      <c r="BB19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="4">
+        <v>602.64</v>
+      </c>
+      <c r="BE19" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF19" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="BH19" s="4">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="20" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -4116,24 +4721,125 @@
       <c r="U20" t="b">
         <v>0</v>
       </c>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
+      <c r="V20" s="4">
+        <v>-75</v>
+      </c>
+      <c r="W20" s="4">
+        <v>1</v>
+      </c>
+      <c r="X20" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>142.9</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>-8</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>1322</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>44.7</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>-103.2</v>
+      </c>
+      <c r="AM20" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>107</v>
+      </c>
+      <c r="AO20" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AP20" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AQ20" s="4">
+        <v>-66</v>
+      </c>
+      <c r="AR20" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>-264.2</v>
+      </c>
+      <c r="AT20" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AU20" s="4">
+        <v>-13.4</v>
+      </c>
+      <c r="AV20" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AW20" s="4">
+        <v>291.5</v>
+      </c>
+      <c r="AX20" s="4">
+        <v>53.3</v>
+      </c>
+      <c r="AY20" s="4">
+        <v>2068</v>
+      </c>
+      <c r="AZ20" s="4">
+        <v>114.7</v>
+      </c>
+      <c r="BA20" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="BB20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="4">
+        <v>843.93</v>
+      </c>
+      <c r="BE20" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF20" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="BH20" s="4">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
-    <row r="21" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -4200,22 +4906,123 @@
       <c r="U21" t="b">
         <v>0</v>
       </c>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
+      <c r="V21" s="4">
+        <v>-76.099999999999994</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="X21" s="4">
+        <v>65</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>-40.9</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>-133.69999999999999</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>1350.1</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>31.7</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>-113.8</v>
+      </c>
+      <c r="AM21" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="AN21" s="4">
+        <v>29</v>
+      </c>
+      <c r="AO21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AP21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AQ21" s="4">
+        <v>-85.1</v>
+      </c>
+      <c r="AR21" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="AS21" s="4">
+        <v>-190.2</v>
+      </c>
+      <c r="AT21" s="4">
+        <v>28.7</v>
+      </c>
+      <c r="AU21" s="4">
+        <v>-19.5</v>
+      </c>
+      <c r="AV21" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AW21" s="4">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="AX21" s="4">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="AY21" s="4">
+        <v>2429</v>
+      </c>
+      <c r="AZ21" s="4">
+        <v>86.7</v>
+      </c>
+      <c r="BA21" s="4">
+        <v>-1.8</v>
+      </c>
+      <c r="BB21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD21" s="4">
+        <v>893.95</v>
+      </c>
+      <c r="BE21" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF21" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="BH21" s="4">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4402,7 +5209,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -4469,22 +5276,123 @@
       <c r="U23" t="b">
         <v>0</v>
       </c>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
+      <c r="V23" s="4">
+        <v>-69.8</v>
+      </c>
+      <c r="W23" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="X23" s="4">
+        <v>141</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>-43.6</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>-68.7</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>-16.5</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>40.4</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>1253</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>-100.9</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>44</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AQ23" s="4">
+        <v>-90.6</v>
+      </c>
+      <c r="AR23" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>-98.9</v>
+      </c>
+      <c r="AT23" s="4">
+        <v>43.4</v>
+      </c>
+      <c r="AU23" s="4">
+        <v>-17.2</v>
+      </c>
+      <c r="AV23" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="AW23" s="4">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="AX23" s="4">
+        <v>68.3</v>
+      </c>
+      <c r="AY23" s="4">
+        <v>2359.6</v>
+      </c>
+      <c r="AZ23" s="4">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="BA23" s="4">
+        <v>-1.4</v>
+      </c>
+      <c r="BB23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="4">
+        <v>779.85</v>
+      </c>
+      <c r="BE23" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF23" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG23" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5041,7 +5949,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="27" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -5108,24 +6016,125 @@
       <c r="U27" t="b">
         <v>0</v>
       </c>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
+      <c r="V27" s="4">
+        <v>-66.3</v>
+      </c>
+      <c r="W27" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="X27" s="4">
+        <v>42</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>-37</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>-139.6</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>-3.1</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>1238.3</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>-100</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>105</v>
+      </c>
+      <c r="AO27" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AP27" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ27" s="4">
+        <v>-89.7</v>
+      </c>
+      <c r="AR27" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="AS27" s="4">
+        <v>-122.4</v>
+      </c>
+      <c r="AT27" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="AU27" s="4">
+        <v>-10.8</v>
+      </c>
+      <c r="AV27" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW27" s="4">
+        <v>248.9</v>
+      </c>
+      <c r="AX27" s="4">
+        <v>72</v>
+      </c>
+      <c r="AY27" s="4">
+        <v>2388</v>
+      </c>
+      <c r="AZ27" s="4">
+        <v>63.9</v>
+      </c>
+      <c r="BA27" s="4">
+        <v>-1.4</v>
+      </c>
+      <c r="BB27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="4">
+        <v>715.8</v>
+      </c>
+      <c r="BE27" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF27" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="BH27" s="4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -5192,22 +6201,123 @@
       <c r="U28" t="b">
         <v>0</v>
       </c>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
+      <c r="V28" s="4">
+        <v>-70.599999999999994</v>
+      </c>
+      <c r="W28" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="X28" s="4">
+        <v>71</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>-39</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>-152.80000000000001</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>-2.8</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>1171.7</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>24</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>-1.4</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>-101.3</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>77</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AP28" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="AQ28" s="4">
+        <v>-84.6</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>-154</v>
+      </c>
+      <c r="AT28" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>-13.4</v>
+      </c>
+      <c r="AV28" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW28" s="4">
+        <v>275.3</v>
+      </c>
+      <c r="AX28" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="AY28" s="4">
+        <v>2435.6999999999998</v>
+      </c>
+      <c r="AZ28" s="4">
+        <v>56.9</v>
+      </c>
+      <c r="BA28" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="BB28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD28" s="4">
+        <v>730.77</v>
+      </c>
+      <c r="BE28" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF28" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="BH28" s="4">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -5949,7 +7059,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="33" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -6016,8 +7126,125 @@
       <c r="U33" t="b">
         <v>0</v>
       </c>
+      <c r="V33" s="4">
+        <v>-69.3</v>
+      </c>
+      <c r="W33" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="X33" s="4">
+        <v>113</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>-46.4</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>-33.5</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>-19</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>1229.2</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>-118.4</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>91</v>
+      </c>
+      <c r="AO33" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AP33" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ33" s="4">
+        <v>-80</v>
+      </c>
+      <c r="AR33" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AS33" s="4">
+        <v>-230</v>
+      </c>
+      <c r="AT33" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="AU33" s="4">
+        <v>-15.6</v>
+      </c>
+      <c r="AV33" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AW33" s="4">
+        <v>232.8</v>
+      </c>
+      <c r="AX33" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AY33" s="4">
+        <v>2085.1</v>
+      </c>
+      <c r="AZ33" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="BA33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BB33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD33" s="4">
+        <v>705.85</v>
+      </c>
+      <c r="BE33" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="BF33" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="BH33" s="4">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="34" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -6084,8 +7311,125 @@
       <c r="U34" t="b">
         <v>0</v>
       </c>
+      <c r="V34" s="4">
+        <v>-69.3</v>
+      </c>
+      <c r="W34" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="X34" s="4">
+        <v>113</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>-46.4</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>-33.5</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>-19</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>1229.2</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>-118.4</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>91</v>
+      </c>
+      <c r="AO34" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AP34" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ34" s="4">
+        <v>-80</v>
+      </c>
+      <c r="AR34" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AS34" s="4">
+        <v>-230</v>
+      </c>
+      <c r="AT34" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="AU34" s="4">
+        <v>-15.6</v>
+      </c>
+      <c r="AV34" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AW34" s="4">
+        <v>232.8</v>
+      </c>
+      <c r="AX34" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AY34" s="4">
+        <v>2085.1</v>
+      </c>
+      <c r="AZ34" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="BA34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BB34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD34" s="4">
+        <v>705.85</v>
+      </c>
+      <c r="BE34" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="BF34" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG34" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="BH34" s="4">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="35" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -6152,8 +7496,125 @@
       <c r="U35" t="b">
         <v>0</v>
       </c>
+      <c r="V35" s="4">
+        <v>-76.599999999999994</v>
+      </c>
+      <c r="W35" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X35" s="4">
+        <v>78</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>-30.8</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>-178.2</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>-12.9</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AI35" s="4">
+        <v>1063</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>-108.7</v>
+      </c>
+      <c r="AM35" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="AN35" s="4">
+        <v>94</v>
+      </c>
+      <c r="AO35" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AP35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ35" s="4">
+        <v>-82.6</v>
+      </c>
+      <c r="AR35" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="AS35" s="4">
+        <v>-224</v>
+      </c>
+      <c r="AT35" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU35" s="4">
+        <v>-7.1</v>
+      </c>
+      <c r="AV35" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AW35" s="4">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="AX35" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="AY35" s="4">
+        <v>2372.1999999999998</v>
+      </c>
+      <c r="AZ35" s="4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="BA35" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="BB35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="4">
+        <v>764.87</v>
+      </c>
+      <c r="BE35" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="BF35" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG35" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="BH35" s="4">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="36" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -6220,8 +7681,125 @@
       <c r="U36" t="b">
         <v>0</v>
       </c>
+      <c r="V36" s="4">
+        <v>-75.5</v>
+      </c>
+      <c r="W36" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="X36" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>-36</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>-136.69999999999999</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>41.1</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>-13.3</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>5</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="AI36" s="4">
+        <v>1004.2</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>97.1</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>-1.8</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>-125.5</v>
+      </c>
+      <c r="AM36" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="AN36" s="4">
+        <v>102</v>
+      </c>
+      <c r="AO36" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AP36" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ36" s="4">
+        <v>-83.8</v>
+      </c>
+      <c r="AR36" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="AS36" s="4">
+        <v>-255.4</v>
+      </c>
+      <c r="AT36" s="4">
+        <v>13</v>
+      </c>
+      <c r="AU36" s="4">
+        <v>-6.4</v>
+      </c>
+      <c r="AV36" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="AW36" s="4">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="AX36" s="4">
+        <v>43.2</v>
+      </c>
+      <c r="AY36" s="4">
+        <v>2475.6</v>
+      </c>
+      <c r="AZ36" s="4">
+        <v>113.7</v>
+      </c>
+      <c r="BA36" s="4">
+        <v>-2.1</v>
+      </c>
+      <c r="BB36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC36" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="4">
+        <v>706.84</v>
+      </c>
+      <c r="BE36" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="BF36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BG36" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="BH36" s="4">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="37" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -6288,8 +7866,125 @@
       <c r="U37" t="b">
         <v>0</v>
       </c>
+      <c r="V37" s="4">
+        <v>-69.3</v>
+      </c>
+      <c r="W37" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="X37" s="4">
+        <v>113</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>-46.4</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>-33.5</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>-19</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>1229.2</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>-118.4</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>91</v>
+      </c>
+      <c r="AO37" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AP37" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ37" s="4">
+        <v>-80</v>
+      </c>
+      <c r="AR37" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AS37" s="4">
+        <v>-230</v>
+      </c>
+      <c r="AT37" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="AU37" s="4">
+        <v>-15.6</v>
+      </c>
+      <c r="AV37" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AW37" s="4">
+        <v>232.8</v>
+      </c>
+      <c r="AX37" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AY37" s="4">
+        <v>2085.1</v>
+      </c>
+      <c r="AZ37" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="BA37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BB37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD37" s="4">
+        <v>705.85</v>
+      </c>
+      <c r="BE37" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="BF37" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG37" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="BH37" s="4">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="38" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -6356,8 +8051,125 @@
       <c r="U38" t="b">
         <v>0</v>
       </c>
+      <c r="V38" s="4">
+        <v>-69.3</v>
+      </c>
+      <c r="W38" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="X38" s="4">
+        <v>113</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>-46.4</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>-33.5</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>-19</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="AI38" s="4">
+        <v>1229.2</v>
+      </c>
+      <c r="AJ38" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>-118.4</v>
+      </c>
+      <c r="AM38" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN38" s="4">
+        <v>91</v>
+      </c>
+      <c r="AO38" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AP38" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ38" s="4">
+        <v>-80</v>
+      </c>
+      <c r="AR38" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AS38" s="4">
+        <v>-230</v>
+      </c>
+      <c r="AT38" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="AU38" s="4">
+        <v>-15.6</v>
+      </c>
+      <c r="AV38" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AW38" s="4">
+        <v>232.8</v>
+      </c>
+      <c r="AX38" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AY38" s="4">
+        <v>2085.1</v>
+      </c>
+      <c r="AZ38" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="BA38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BB38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD38" s="4">
+        <v>705.85</v>
+      </c>
+      <c r="BE38" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="BF38" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG38" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="BH38" s="4">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="39" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -6424,8 +8236,125 @@
       <c r="U39" t="b">
         <v>0</v>
       </c>
+      <c r="V39" s="4">
+        <v>-76.599999999999994</v>
+      </c>
+      <c r="W39" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X39" s="4">
+        <v>78</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>-30.8</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>-178.2</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>-12.9</v>
+      </c>
+      <c r="AF39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AI39" s="4">
+        <v>1063</v>
+      </c>
+      <c r="AJ39" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>-108.7</v>
+      </c>
+      <c r="AM39" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="AN39" s="4">
+        <v>94</v>
+      </c>
+      <c r="AO39" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AP39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ39" s="4">
+        <v>-82.6</v>
+      </c>
+      <c r="AR39" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="AS39" s="4">
+        <v>-224</v>
+      </c>
+      <c r="AT39" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU39" s="4">
+        <v>-7.1</v>
+      </c>
+      <c r="AV39" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AW39" s="4">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="AX39" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="AY39" s="4">
+        <v>2372.1999999999998</v>
+      </c>
+      <c r="AZ39" s="4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="BA39" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="BB39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="4">
+        <v>764.87</v>
+      </c>
+      <c r="BE39" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="BF39" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG39" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="BH39" s="4">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="40" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -6492,8 +8421,125 @@
       <c r="U40" t="b">
         <v>0</v>
       </c>
+      <c r="V40" s="4">
+        <v>-69.3</v>
+      </c>
+      <c r="W40" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="X40" s="4">
+        <v>113</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>-46.4</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>-33.5</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>-19</v>
+      </c>
+      <c r="AF40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG40" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="AI40" s="4">
+        <v>1229.2</v>
+      </c>
+      <c r="AJ40" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="AK40" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="AL40" s="4">
+        <v>-118.4</v>
+      </c>
+      <c r="AM40" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN40" s="4">
+        <v>91</v>
+      </c>
+      <c r="AO40" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AP40" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ40" s="4">
+        <v>-80</v>
+      </c>
+      <c r="AR40" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AS40" s="4">
+        <v>-230</v>
+      </c>
+      <c r="AT40" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="AU40" s="4">
+        <v>-15.6</v>
+      </c>
+      <c r="AV40" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AW40" s="4">
+        <v>232.8</v>
+      </c>
+      <c r="AX40" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AY40" s="4">
+        <v>2085.1</v>
+      </c>
+      <c r="AZ40" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="BA40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BB40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD40" s="4">
+        <v>705.85</v>
+      </c>
+      <c r="BE40" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="BF40" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG40" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="BH40" s="4">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="41" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -6560,8 +8606,125 @@
       <c r="U41" t="b">
         <v>0</v>
       </c>
+      <c r="V41" s="4">
+        <v>-69.3</v>
+      </c>
+      <c r="W41" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="X41" s="4">
+        <v>113</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>-46.4</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AC41" s="4">
+        <v>-33.5</v>
+      </c>
+      <c r="AD41" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="AE41" s="4">
+        <v>-19</v>
+      </c>
+      <c r="AF41" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG41" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="AH41" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="AI41" s="4">
+        <v>1229.2</v>
+      </c>
+      <c r="AJ41" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="AK41" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="AL41" s="4">
+        <v>-118.4</v>
+      </c>
+      <c r="AM41" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN41" s="4">
+        <v>91</v>
+      </c>
+      <c r="AO41" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AP41" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ41" s="4">
+        <v>-80</v>
+      </c>
+      <c r="AR41" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AS41" s="4">
+        <v>-230</v>
+      </c>
+      <c r="AT41" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="AU41" s="4">
+        <v>-15.6</v>
+      </c>
+      <c r="AV41" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AW41" s="4">
+        <v>232.8</v>
+      </c>
+      <c r="AX41" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AY41" s="4">
+        <v>2085.1</v>
+      </c>
+      <c r="AZ41" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="BA41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BB41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD41" s="4">
+        <v>705.85</v>
+      </c>
+      <c r="BE41" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="BF41" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG41" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="BH41" s="4">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="42" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -6628,8 +8791,125 @@
       <c r="U42" t="b">
         <v>0</v>
       </c>
+      <c r="V42" s="4">
+        <v>-76.599999999999994</v>
+      </c>
+      <c r="W42" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X42" s="4">
+        <v>78</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>-30.8</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AC42" s="4">
+        <v>-178.2</v>
+      </c>
+      <c r="AD42" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AE42" s="4">
+        <v>-12.9</v>
+      </c>
+      <c r="AF42" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG42" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="AH42" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AI42" s="4">
+        <v>1063</v>
+      </c>
+      <c r="AJ42" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="AK42" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="AL42" s="4">
+        <v>-108.7</v>
+      </c>
+      <c r="AM42" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="AN42" s="4">
+        <v>94</v>
+      </c>
+      <c r="AO42" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AP42" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ42" s="4">
+        <v>-82.6</v>
+      </c>
+      <c r="AR42" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="AS42" s="4">
+        <v>-224</v>
+      </c>
+      <c r="AT42" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU42" s="4">
+        <v>-7.1</v>
+      </c>
+      <c r="AV42" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AW42" s="4">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="AX42" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="AY42" s="4">
+        <v>2372.1999999999998</v>
+      </c>
+      <c r="AZ42" s="4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="BA42" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="BB42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD42" s="4">
+        <v>764.87</v>
+      </c>
+      <c r="BE42" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="BF42" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG42" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="BH42" s="4">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="43" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6696,8 +8976,125 @@
       <c r="U43" t="b">
         <v>0</v>
       </c>
+      <c r="V43" s="4">
+        <v>-76.599999999999994</v>
+      </c>
+      <c r="W43" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X43" s="4">
+        <v>78</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AA43" s="4">
+        <v>-30.8</v>
+      </c>
+      <c r="AB43" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AC43" s="4">
+        <v>-178.2</v>
+      </c>
+      <c r="AD43" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AE43" s="4">
+        <v>-12.9</v>
+      </c>
+      <c r="AF43" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG43" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="AH43" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AI43" s="4">
+        <v>1063</v>
+      </c>
+      <c r="AJ43" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="AK43" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="AL43" s="4">
+        <v>-108.7</v>
+      </c>
+      <c r="AM43" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="AN43" s="4">
+        <v>94</v>
+      </c>
+      <c r="AO43" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AP43" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ43" s="4">
+        <v>-82.6</v>
+      </c>
+      <c r="AR43" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="AS43" s="4">
+        <v>-224</v>
+      </c>
+      <c r="AT43" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU43" s="4">
+        <v>-7.1</v>
+      </c>
+      <c r="AV43" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AW43" s="4">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="AX43" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="AY43" s="4">
+        <v>2372.1999999999998</v>
+      </c>
+      <c r="AZ43" s="4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="BA43" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="BB43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD43" s="4">
+        <v>764.87</v>
+      </c>
+      <c r="BE43" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="BF43" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG43" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="BH43" s="4">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="44" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -6764,8 +9161,125 @@
       <c r="U44" t="b">
         <v>0</v>
       </c>
+      <c r="V44" s="4">
+        <v>-76.599999999999994</v>
+      </c>
+      <c r="W44" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X44" s="4">
+        <v>78</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>-30.8</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AC44" s="4">
+        <v>-178.2</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AE44" s="4">
+        <v>-12.9</v>
+      </c>
+      <c r="AF44" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG44" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="AH44" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AI44" s="4">
+        <v>1063</v>
+      </c>
+      <c r="AJ44" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="AK44" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="AL44" s="4">
+        <v>-108.7</v>
+      </c>
+      <c r="AM44" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="AN44" s="4">
+        <v>94</v>
+      </c>
+      <c r="AO44" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AP44" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ44" s="4">
+        <v>-82.6</v>
+      </c>
+      <c r="AR44" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="AS44" s="4">
+        <v>-224</v>
+      </c>
+      <c r="AT44" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU44" s="4">
+        <v>-7.1</v>
+      </c>
+      <c r="AV44" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AW44" s="4">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="AX44" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="AY44" s="4">
+        <v>2372.1999999999998</v>
+      </c>
+      <c r="AZ44" s="4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="BA44" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="BB44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC44" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD44" s="4">
+        <v>764.87</v>
+      </c>
+      <c r="BE44" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="BF44" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG44" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="BH44" s="4">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="45" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -6831,6 +9345,123 @@
       </c>
       <c r="U45" t="b">
         <v>0</v>
+      </c>
+      <c r="V45" s="4">
+        <v>-69.3</v>
+      </c>
+      <c r="W45" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="X45" s="4">
+        <v>113</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>-46.4</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AC45" s="4">
+        <v>-33.5</v>
+      </c>
+      <c r="AD45" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="AE45" s="4">
+        <v>-19</v>
+      </c>
+      <c r="AF45" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG45" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="AH45" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="AI45" s="4">
+        <v>1229.2</v>
+      </c>
+      <c r="AJ45" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="AK45" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="AL45" s="4">
+        <v>-118.4</v>
+      </c>
+      <c r="AM45" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN45" s="4">
+        <v>91</v>
+      </c>
+      <c r="AO45" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AP45" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ45" s="4">
+        <v>-80</v>
+      </c>
+      <c r="AR45" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AS45" s="4">
+        <v>-230</v>
+      </c>
+      <c r="AT45" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="AU45" s="4">
+        <v>-15.6</v>
+      </c>
+      <c r="AV45" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AW45" s="4">
+        <v>232.8</v>
+      </c>
+      <c r="AX45" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AY45" s="4">
+        <v>2085.1</v>
+      </c>
+      <c r="AZ45" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="BA45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BB45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD45" s="4">
+        <v>705.85</v>
+      </c>
+      <c r="BE45" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="BF45" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG45" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="BH45" s="4">
+        <v>0.17</v>
       </c>
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.25">
@@ -7018,7 +9649,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="47" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -7085,8 +9716,125 @@
       <c r="U47" t="b">
         <v>0</v>
       </c>
+      <c r="V47" s="4">
+        <v>-69.3</v>
+      </c>
+      <c r="W47" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="X47" s="4">
+        <v>113</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Z47" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA47" s="4">
+        <v>-46.4</v>
+      </c>
+      <c r="AB47" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AC47" s="4">
+        <v>-33.5</v>
+      </c>
+      <c r="AD47" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="AE47" s="4">
+        <v>-19</v>
+      </c>
+      <c r="AF47" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG47" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="AH47" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="AI47" s="4">
+        <v>1229.2</v>
+      </c>
+      <c r="AJ47" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="AK47" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="AL47" s="4">
+        <v>-118.4</v>
+      </c>
+      <c r="AM47" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN47" s="4">
+        <v>91</v>
+      </c>
+      <c r="AO47" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AP47" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ47" s="4">
+        <v>-80</v>
+      </c>
+      <c r="AR47" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AS47" s="4">
+        <v>-230</v>
+      </c>
+      <c r="AT47" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="AU47" s="4">
+        <v>-15.6</v>
+      </c>
+      <c r="AV47" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AW47" s="4">
+        <v>232.8</v>
+      </c>
+      <c r="AX47" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AY47" s="4">
+        <v>2085.1</v>
+      </c>
+      <c r="AZ47" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="BA47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BB47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD47" s="4">
+        <v>705.85</v>
+      </c>
+      <c r="BE47" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="BF47" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG47" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="BH47" s="4">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="48" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -7153,8 +9901,125 @@
       <c r="U48" t="b">
         <v>0</v>
       </c>
+      <c r="V48" s="4">
+        <v>-75.5</v>
+      </c>
+      <c r="W48" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="X48" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y48" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Z48" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AA48" s="4">
+        <v>-36</v>
+      </c>
+      <c r="AB48" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="AC48" s="4">
+        <v>-136.69999999999999</v>
+      </c>
+      <c r="AD48" s="4">
+        <v>41.1</v>
+      </c>
+      <c r="AE48" s="4">
+        <v>-13.3</v>
+      </c>
+      <c r="AF48" s="4">
+        <v>5</v>
+      </c>
+      <c r="AG48" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="AH48" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="AI48" s="4">
+        <v>1004.2</v>
+      </c>
+      <c r="AJ48" s="4">
+        <v>97.1</v>
+      </c>
+      <c r="AK48" s="4">
+        <v>-1.8</v>
+      </c>
+      <c r="AL48" s="4">
+        <v>-125.5</v>
+      </c>
+      <c r="AM48" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="AN48" s="4">
+        <v>102</v>
+      </c>
+      <c r="AO48" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AP48" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ48" s="4">
+        <v>-83.8</v>
+      </c>
+      <c r="AR48" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="AS48" s="4">
+        <v>-255.4</v>
+      </c>
+      <c r="AT48" s="4">
+        <v>13</v>
+      </c>
+      <c r="AU48" s="4">
+        <v>-6.4</v>
+      </c>
+      <c r="AV48" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="AW48" s="4">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="AX48" s="4">
+        <v>43.2</v>
+      </c>
+      <c r="AY48" s="4">
+        <v>2475.6</v>
+      </c>
+      <c r="AZ48" s="4">
+        <v>113.7</v>
+      </c>
+      <c r="BA48" s="4">
+        <v>-2.1</v>
+      </c>
+      <c r="BB48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD48" s="4">
+        <v>706.84</v>
+      </c>
+      <c r="BE48" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="BF48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BG48" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="BH48" s="4">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -7221,8 +10086,125 @@
       <c r="U49" t="b">
         <v>0</v>
       </c>
+      <c r="V49" s="4">
+        <v>-77.7</v>
+      </c>
+      <c r="W49" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="X49" s="4">
+        <v>112</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AA49" s="4">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="AC49" s="4">
+        <v>-163.6</v>
+      </c>
+      <c r="AD49" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="AE49" s="4">
+        <v>-15.4</v>
+      </c>
+      <c r="AF49" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AG49" s="4">
+        <v>46.3</v>
+      </c>
+      <c r="AH49" s="4">
+        <v>17</v>
+      </c>
+      <c r="AI49" s="4">
+        <v>1179</v>
+      </c>
+      <c r="AJ49" s="4">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AK49" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AL49" s="4">
+        <v>-110.7</v>
+      </c>
+      <c r="AM49" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="AN49" s="4">
+        <v>32</v>
+      </c>
+      <c r="AO49" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="AP49" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AQ49" s="4">
+        <v>-80.900000000000006</v>
+      </c>
+      <c r="AR49" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="AS49" s="4">
+        <v>-198.3</v>
+      </c>
+      <c r="AT49" s="4">
+        <v>50</v>
+      </c>
+      <c r="AU49" s="4">
+        <v>-11.4</v>
+      </c>
+      <c r="AV49" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="AW49" s="4">
+        <v>213.3</v>
+      </c>
+      <c r="AX49" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="AY49" s="4">
+        <v>2398.5</v>
+      </c>
+      <c r="AZ49" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="BA49" s="4">
+        <v>-1.7</v>
+      </c>
+      <c r="BB49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD49" s="4">
+        <v>763.89</v>
+      </c>
+      <c r="BE49" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="BF49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BG49" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="BH49" s="4">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -7289,8 +10271,125 @@
       <c r="U50" t="b">
         <v>0</v>
       </c>
+      <c r="V50" s="4">
+        <v>-76.599999999999994</v>
+      </c>
+      <c r="W50" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X50" s="4">
+        <v>78</v>
+      </c>
+      <c r="Y50" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Z50" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AA50" s="4">
+        <v>-30.8</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>-178.2</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AE50" s="4">
+        <v>-12.9</v>
+      </c>
+      <c r="AF50" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG50" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="AH50" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AI50" s="4">
+        <v>1063</v>
+      </c>
+      <c r="AJ50" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="AK50" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="AL50" s="4">
+        <v>-108.7</v>
+      </c>
+      <c r="AM50" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="AN50" s="4">
+        <v>94</v>
+      </c>
+      <c r="AO50" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AP50" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ50" s="4">
+        <v>-82.6</v>
+      </c>
+      <c r="AR50" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="AS50" s="4">
+        <v>-224</v>
+      </c>
+      <c r="AT50" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU50" s="4">
+        <v>-7.1</v>
+      </c>
+      <c r="AV50" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AW50" s="4">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="AX50" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="AY50" s="4">
+        <v>2372.1999999999998</v>
+      </c>
+      <c r="AZ50" s="4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="BA50" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="BB50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC50" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD50" s="4">
+        <v>764.87</v>
+      </c>
+      <c r="BE50" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="BF50" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG50" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="BH50" s="4">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -7357,8 +10456,125 @@
       <c r="U51" t="b">
         <v>0</v>
       </c>
+      <c r="V51" s="4">
+        <v>-69.3</v>
+      </c>
+      <c r="W51" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="X51" s="4">
+        <v>113</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Z51" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA51" s="4">
+        <v>-46.4</v>
+      </c>
+      <c r="AB51" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AC51" s="4">
+        <v>-33.5</v>
+      </c>
+      <c r="AD51" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="AE51" s="4">
+        <v>-19</v>
+      </c>
+      <c r="AF51" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG51" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="AH51" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="AI51" s="4">
+        <v>1229.2</v>
+      </c>
+      <c r="AJ51" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="AK51" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="AL51" s="4">
+        <v>-118.4</v>
+      </c>
+      <c r="AM51" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN51" s="4">
+        <v>91</v>
+      </c>
+      <c r="AO51" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AP51" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ51" s="4">
+        <v>-80</v>
+      </c>
+      <c r="AR51" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AS51" s="4">
+        <v>-230</v>
+      </c>
+      <c r="AT51" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="AU51" s="4">
+        <v>-15.6</v>
+      </c>
+      <c r="AV51" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AW51" s="4">
+        <v>232.8</v>
+      </c>
+      <c r="AX51" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AY51" s="4">
+        <v>2085.1</v>
+      </c>
+      <c r="AZ51" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="BA51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BB51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD51" s="4">
+        <v>705.85</v>
+      </c>
+      <c r="BE51" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="BF51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG51" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="BH51" s="4">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -7425,8 +10641,125 @@
       <c r="U52" t="b">
         <v>0</v>
       </c>
+      <c r="V52" s="4">
+        <v>-75.5</v>
+      </c>
+      <c r="W52" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="X52" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Z52" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AA52" s="4">
+        <v>-36</v>
+      </c>
+      <c r="AB52" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="AC52" s="4">
+        <v>-136.69999999999999</v>
+      </c>
+      <c r="AD52" s="4">
+        <v>41.1</v>
+      </c>
+      <c r="AE52" s="4">
+        <v>-13.3</v>
+      </c>
+      <c r="AF52" s="4">
+        <v>5</v>
+      </c>
+      <c r="AG52" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="AH52" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="AI52" s="4">
+        <v>1004.2</v>
+      </c>
+      <c r="AJ52" s="4">
+        <v>97.1</v>
+      </c>
+      <c r="AK52" s="4">
+        <v>-1.8</v>
+      </c>
+      <c r="AL52" s="4">
+        <v>-125.5</v>
+      </c>
+      <c r="AM52" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="AN52" s="4">
+        <v>102</v>
+      </c>
+      <c r="AO52" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AP52" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ52" s="4">
+        <v>-83.8</v>
+      </c>
+      <c r="AR52" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="AS52" s="4">
+        <v>-255.4</v>
+      </c>
+      <c r="AT52" s="4">
+        <v>13</v>
+      </c>
+      <c r="AU52" s="4">
+        <v>-6.4</v>
+      </c>
+      <c r="AV52" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="AW52" s="4">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="AX52" s="4">
+        <v>43.2</v>
+      </c>
+      <c r="AY52" s="4">
+        <v>2475.6</v>
+      </c>
+      <c r="AZ52" s="4">
+        <v>113.7</v>
+      </c>
+      <c r="BA52" s="4">
+        <v>-2.1</v>
+      </c>
+      <c r="BB52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC52" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD52" s="4">
+        <v>706.84</v>
+      </c>
+      <c r="BE52" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="BF52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BG52" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="BH52" s="4">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -7493,8 +10826,125 @@
       <c r="U53" t="b">
         <v>0</v>
       </c>
+      <c r="V53" s="4">
+        <v>-76.599999999999994</v>
+      </c>
+      <c r="W53" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X53" s="4">
+        <v>78</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>-30.8</v>
+      </c>
+      <c r="AB53" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AC53" s="4">
+        <v>-178.2</v>
+      </c>
+      <c r="AD53" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AE53" s="4">
+        <v>-12.9</v>
+      </c>
+      <c r="AF53" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG53" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="AH53" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AI53" s="4">
+        <v>1063</v>
+      </c>
+      <c r="AJ53" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="AK53" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="AL53" s="4">
+        <v>-108.7</v>
+      </c>
+      <c r="AM53" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="AN53" s="4">
+        <v>94</v>
+      </c>
+      <c r="AO53" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AP53" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ53" s="4">
+        <v>-82.6</v>
+      </c>
+      <c r="AR53" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="AS53" s="4">
+        <v>-224</v>
+      </c>
+      <c r="AT53" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU53" s="4">
+        <v>-7.1</v>
+      </c>
+      <c r="AV53" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AW53" s="4">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="AX53" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="AY53" s="4">
+        <v>2372.1999999999998</v>
+      </c>
+      <c r="AZ53" s="4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="BA53" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="BB53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC53" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD53" s="4">
+        <v>764.87</v>
+      </c>
+      <c r="BE53" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="BF53" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG53" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="BH53" s="4">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -7561,8 +11011,125 @@
       <c r="U54" t="b">
         <v>0</v>
       </c>
+      <c r="V54" s="4">
+        <v>-69.3</v>
+      </c>
+      <c r="W54" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="X54" s="4">
+        <v>113</v>
+      </c>
+      <c r="Y54" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Z54" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>-46.4</v>
+      </c>
+      <c r="AB54" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AC54" s="4">
+        <v>-33.5</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="AE54" s="4">
+        <v>-19</v>
+      </c>
+      <c r="AF54" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG54" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="AH54" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="AI54" s="4">
+        <v>1229.2</v>
+      </c>
+      <c r="AJ54" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="AK54" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="AL54" s="4">
+        <v>-118.4</v>
+      </c>
+      <c r="AM54" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN54" s="4">
+        <v>91</v>
+      </c>
+      <c r="AO54" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AP54" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ54" s="4">
+        <v>-80</v>
+      </c>
+      <c r="AR54" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AS54" s="4">
+        <v>-230</v>
+      </c>
+      <c r="AT54" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="AU54" s="4">
+        <v>-15.6</v>
+      </c>
+      <c r="AV54" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AW54" s="4">
+        <v>232.8</v>
+      </c>
+      <c r="AX54" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AY54" s="4">
+        <v>2085.1</v>
+      </c>
+      <c r="AZ54" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="BA54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BB54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD54" s="4">
+        <v>705.85</v>
+      </c>
+      <c r="BE54" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="BF54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG54" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="BH54" s="4">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -7629,8 +11196,125 @@
       <c r="U55" t="b">
         <v>0</v>
       </c>
+      <c r="V55" s="4">
+        <v>-76.599999999999994</v>
+      </c>
+      <c r="W55" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X55" s="4">
+        <v>78</v>
+      </c>
+      <c r="Y55" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Z55" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AA55" s="4">
+        <v>-30.8</v>
+      </c>
+      <c r="AB55" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AC55" s="4">
+        <v>-178.2</v>
+      </c>
+      <c r="AD55" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AE55" s="4">
+        <v>-12.9</v>
+      </c>
+      <c r="AF55" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG55" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="AH55" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AI55" s="4">
+        <v>1063</v>
+      </c>
+      <c r="AJ55" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="AK55" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="AL55" s="4">
+        <v>-108.7</v>
+      </c>
+      <c r="AM55" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="AN55" s="4">
+        <v>94</v>
+      </c>
+      <c r="AO55" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AP55" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ55" s="4">
+        <v>-82.6</v>
+      </c>
+      <c r="AR55" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="AS55" s="4">
+        <v>-224</v>
+      </c>
+      <c r="AT55" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU55" s="4">
+        <v>-7.1</v>
+      </c>
+      <c r="AV55" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AW55" s="4">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="AX55" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="AY55" s="4">
+        <v>2372.1999999999998</v>
+      </c>
+      <c r="AZ55" s="4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="BA55" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="BB55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC55" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD55" s="4">
+        <v>764.87</v>
+      </c>
+      <c r="BE55" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="BF55" s="4">
+        <v>-2</v>
+      </c>
+      <c r="BG55" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="BH55" s="4">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -7697,8 +11381,125 @@
       <c r="U56" t="b">
         <v>0</v>
       </c>
+      <c r="V56" s="4">
+        <v>-77.7</v>
+      </c>
+      <c r="W56" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="X56" s="4">
+        <v>112</v>
+      </c>
+      <c r="Y56" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Z56" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AA56" s="4">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="AB56" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="AC56" s="4">
+        <v>-163.6</v>
+      </c>
+      <c r="AD56" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="AE56" s="4">
+        <v>-15.4</v>
+      </c>
+      <c r="AF56" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AG56" s="4">
+        <v>46.3</v>
+      </c>
+      <c r="AH56" s="4">
+        <v>17</v>
+      </c>
+      <c r="AI56" s="4">
+        <v>1179</v>
+      </c>
+      <c r="AJ56" s="4">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AK56" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AL56" s="4">
+        <v>-110.7</v>
+      </c>
+      <c r="AM56" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="AN56" s="4">
+        <v>32</v>
+      </c>
+      <c r="AO56" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="AP56" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AQ56" s="4">
+        <v>-80.900000000000006</v>
+      </c>
+      <c r="AR56" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="AS56" s="4">
+        <v>-198.3</v>
+      </c>
+      <c r="AT56" s="4">
+        <v>50</v>
+      </c>
+      <c r="AU56" s="4">
+        <v>-11.4</v>
+      </c>
+      <c r="AV56" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="AW56" s="4">
+        <v>213.3</v>
+      </c>
+      <c r="AX56" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="AY56" s="4">
+        <v>2398.5</v>
+      </c>
+      <c r="AZ56" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="BA56" s="4">
+        <v>-1.7</v>
+      </c>
+      <c r="BB56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD56" s="4">
+        <v>763.89</v>
+      </c>
+      <c r="BE56" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="BF56" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BG56" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="BH56" s="4">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -7765,15 +11566,126 @@
       <c r="U57" t="b">
         <v>0</v>
       </c>
+      <c r="V57" s="4">
+        <v>-77.7</v>
+      </c>
+      <c r="W57" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="X57" s="4">
+        <v>112</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AA57" s="4">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="AB57" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="AC57" s="4">
+        <v>-163.6</v>
+      </c>
+      <c r="AD57" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="AE57" s="4">
+        <v>-15.4</v>
+      </c>
+      <c r="AF57" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AG57" s="4">
+        <v>46.3</v>
+      </c>
+      <c r="AH57" s="4">
+        <v>17</v>
+      </c>
+      <c r="AI57" s="4">
+        <v>1179</v>
+      </c>
+      <c r="AJ57" s="4">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AK57" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AL57" s="4">
+        <v>-110.7</v>
+      </c>
+      <c r="AM57" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="AN57" s="4">
+        <v>32</v>
+      </c>
+      <c r="AO57" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="AP57" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AQ57" s="4">
+        <v>-80.900000000000006</v>
+      </c>
+      <c r="AR57" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="AS57" s="4">
+        <v>-198.3</v>
+      </c>
+      <c r="AT57" s="4">
+        <v>50</v>
+      </c>
+      <c r="AU57" s="4">
+        <v>-11.4</v>
+      </c>
+      <c r="AV57" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="AW57" s="4">
+        <v>213.3</v>
+      </c>
+      <c r="AX57" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="AY57" s="4">
+        <v>2398.5</v>
+      </c>
+      <c r="AZ57" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="BA57" s="4">
+        <v>-1.7</v>
+      </c>
+      <c r="BB57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD57" s="4">
+        <v>763.89</v>
+      </c>
+      <c r="BE57" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="BF57" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BG57" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="BH57" s="4">
+        <v>0.33</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BA57" xr:uid="{30842AB1-A644-42C7-A90C-F34DF0E50414}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:BA57" xr:uid="{30842AB1-A644-42C7-A90C-F34DF0E50414}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -7783,7 +11695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2641B9E1-111B-4DBB-8D98-45E3FA03CAD2}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -7819,29 +11731,29 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>202</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>0.94148924582280813</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="7" t="s">
         <v>204</v>
       </c>
@@ -7853,67 +11765,67 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>0.68128261389822653</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>2.6013E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>0.61423448291348803</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>8.7092000000000003E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>0.90669234032278001</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
         <v>209</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>0.95056404308178999</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="7" t="s">
         <v>204</v>
       </c>
@@ -7925,53 +11837,53 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>0.63830635278054382</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>5.8252E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>0.64419096547530064</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>5.2597E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>0.90716426296454156</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>202</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -7985,9 +11897,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="7" t="s">
         <v>204</v>
       </c>
@@ -7999,37 +11911,37 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>0.6862244530763969</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <v>2.3514999999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>0.53015940998910882</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>2.85889E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="7" t="s">
         <v>207</v>
       </c>
@@ -8041,9 +11953,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>209</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -8057,9 +11969,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="7" t="s">
         <v>204</v>
       </c>
@@ -8071,37 +11983,37 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>0.71751585348339164</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="8">
         <v>1.1841E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <v>0.55327660351762575</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="8">
         <v>2.12316E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="7" t="s">
         <v>207</v>
       </c>
@@ -8113,13 +12025,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>202</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -8133,9 +12045,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="7" t="s">
         <v>204</v>
       </c>
@@ -8147,9 +12059,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="7" t="s">
         <v>205</v>
       </c>
@@ -8161,9 +12073,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="7" t="s">
         <v>206</v>
       </c>
@@ -8175,9 +12087,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="7" t="s">
         <v>207</v>
       </c>
@@ -8189,11 +12101,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>202</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -8207,9 +12119,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7" t="s">
         <v>204</v>
       </c>
@@ -8221,9 +12133,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7" t="s">
         <v>205</v>
       </c>
@@ -8235,9 +12147,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7" t="s">
         <v>206</v>
       </c>
@@ -8249,9 +12161,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7" t="s">
         <v>207</v>
       </c>

--- a/CSP_sequence_analysis/protein/HADDOCK_Results.xlsx
+++ b/CSP_sequence_analysis/protein/HADDOCK_Results.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Ghana_CSP_Haplotypes\CSP_sequence_analysis\protein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CB9C61-CC60-450F-8FEF-797034CEBD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D04689-B2FB-455D-BDCD-FAC98E242DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{05BB3759-F2AC-475A-81D0-60BB4FF9CDA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{05BB3759-F2AC-475A-81D0-60BB4FF9CDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Correlations" sheetId="2" r:id="rId2"/>
+    <sheet name="for Paper" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Correlations!$A$1:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'for Paper'!$A$1:$F$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="230">
   <si>
     <t>HLA Structure File</t>
   </si>
@@ -713,6 +715,55 @@
   </si>
   <si>
     <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>csp-8, 36</t>
+  </si>
+  <si>
+    <t>csp-1, 18, 111</t>
+  </si>
+  <si>
+    <t>csp-19, 31</t>
+  </si>
+  <si>
+    <t>csp-7, 10, 11, 27, 99</t>
+  </si>
+  <si>
+    <t>csp-35, 39</t>
+  </si>
+  <si>
+    <t>csp-47, 53</t>
+  </si>
+  <si>
+    <t>csp-4, 46</t>
+  </si>
+  <si>
+    <t>csp-4, 11, 39, 55</t>
+  </si>
+  <si>
+    <t>csp-reference, 10, 16, 22, 27, 31, 47, 68, 99</t>
+  </si>
+  <si>
+    <t>csp-1, 7, 8, 12, 15, 18, 19, 32, 36, 53, 94</t>
+  </si>
+  <si>
+    <t>csp-35, 46, 111, 117</t>
+  </si>
+  <si>
+    <t>CD4 / Th2R</t>
+  </si>
+  <si>
+    <t>T-Cell Type / Region</t>
+  </si>
+  <si>
+    <t>CD8 / Th3R</t>
+  </si>
+  <si>
+    <t>HLA-CSPpep-TCR 
+HADDOCK score</t>
+  </si>
+  <si>
+    <t>CSP Haplotype</t>
   </si>
 </sst>
 </file>
@@ -756,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -783,6 +834,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1100,11 +1154,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C05FAB-699E-4769-A909-822D635E1B9A}">
   <dimension ref="A1:BH57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V23" sqref="V23:BH23"/>
+      <selection pane="bottomRight" activeCell="AL3" sqref="AL3:BA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12237,4 +12291,527 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E0C8C5-0A76-4A34-A9C6-3819CB33CBCF}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="13.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D22" si="0">LEN(C2)</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-62.5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-124.5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>730.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-70.599999999999994</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-101.3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>730.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-76.099999999999994</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-113.8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>893.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-66.3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>715.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-58.7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-88.3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>602.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-82</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-104.3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>843.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-62.8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-132.1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>651.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-70.900000000000006</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-102.6</v>
+      </c>
+      <c r="G9" s="4">
+        <v>702.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-48.3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-91.3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>488.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-108.9</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-76.099999999999994</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1101.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-86</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-96.7</v>
+      </c>
+      <c r="G12" s="4">
+        <v>878.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-75</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-103.2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>843.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-69.8</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-100.9</v>
+      </c>
+      <c r="G14" s="4">
+        <v>779.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>-98</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-118</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1163.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-79.5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-98.8</v>
+      </c>
+      <c r="G16" s="4">
+        <v>731.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-92.4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-89.7</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1120.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-41.3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-128.6</v>
+      </c>
+      <c r="G18" s="4">
+        <v>488.54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-76.599999999999994</v>
+      </c>
+      <c r="F19" s="4">
+        <v>-108.7</v>
+      </c>
+      <c r="G19" s="4">
+        <v>764.87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-69.3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-118.4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>705.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E21" s="4">
+        <v>-75.5</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-125.5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>706.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E22" s="4">
+        <v>-77.7</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-110.7</v>
+      </c>
+      <c r="G22" s="4">
+        <v>763.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F22" xr:uid="{30842AB1-A644-42C7-A90C-F34DF0E50414}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A19:A22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CSP_sequence_analysis/protein/HADDOCK_Results.xlsx
+++ b/CSP_sequence_analysis/protein/HADDOCK_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Ghana_CSP_Haplotypes\CSP_sequence_analysis\protein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D04689-B2FB-455D-BDCD-FAC98E242DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20BC654-FBA4-4C30-84E1-4BF6B7C5B11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{05BB3759-F2AC-475A-81D0-60BB4FF9CDA1}"/>
   </bookViews>
@@ -807,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -836,7 +836,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12301,7 +12304,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12317,25 +12320,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>195</v>
       </c>
     </row>
